--- a/task_correlations.xlsx
+++ b/task_correlations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olaozernov-palchik/Dropbox (MIT)/GitHub/procedural-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18940ABD-52E0-2E4B-8797-92FAAA4819F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D380AA-3D44-F446-B437-B88CBBA06931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24300" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,35 +233,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,7 +1442,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>1</v>
@@ -1472,7 +1466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1480,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1496,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1520,7 +1514,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1534,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1556,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1586,7 +1580,7 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
